--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced_Tasks\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndustryConnect\AdvancedTask\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F415CEB-5E93-4A47-9E05-F92F592AA21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79DA7B6-AB8D-4C39-B4C9-7398B251065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
+    <workbookView xWindow="3015" yWindow="1140" windowWidth="20550" windowHeight="11835" firstSheet="1" activeTab="7" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -43,56 +43,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Tag1</t>
-  </si>
-  <si>
-    <t>Tag2</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>LocationType</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>SkillTrade</t>
-  </si>
-  <si>
-    <t>SkillExchangeTag</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Credit</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -111,9 +69,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -157,6 +112,84 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>addtags</t>
+  </si>
+  <si>
+    <t>serviceType</t>
+  </si>
+  <si>
+    <t>locationType</t>
+  </si>
+  <si>
+    <t>daysAvaialable</t>
+  </si>
+  <si>
+    <t>beginDate</t>
+  </si>
+  <si>
+    <t>finishDate</t>
+  </si>
+  <si>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>skilltrade</t>
+  </si>
+  <si>
+    <t>skilltags</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Ballet Dancer</t>
+  </si>
+  <si>
+    <t>I am a ballet dance instructor with several years of experience</t>
+  </si>
+  <si>
+    <t>Fun &amp; Lifestyle</t>
+  </si>
+  <si>
+    <t>Health, Nutrition &amp; Fitness</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Skill-exchange</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
   </si>
 </sst>
 </file>
@@ -219,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -230,11 +263,8 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,59 +585,59 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -620,43 +650,43 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>26</v>
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +700,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -684,33 +714,33 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -725,32 +755,32 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -765,41 +795,41 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -810,38 +840,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0E989E-ACC8-4325-BD73-B7DF83CA9066}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,102 +882,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2223F1-3B35-43FD-A949-4F4FD09224B8}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2">
+        <v>10082024</v>
+      </c>
+      <c r="J2">
+        <v>10092024</v>
+      </c>
+      <c r="K2">
+        <v>900</v>
+      </c>
+      <c r="L2">
+        <v>1600</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="P2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -956,7 +1018,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="4"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -966,7 +1028,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>

--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndustryConnect\AdvancedTask\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79DA7B6-AB8D-4C39-B4C9-7398B251065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D12B9D-5354-4159-9617-8F6490AFCF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1140" windowWidth="20550" windowHeight="11835" firstSheet="1" activeTab="7" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
+    <workbookView xWindow="3855" yWindow="2145" windowWidth="20550" windowHeight="11835" firstSheet="2" activeTab="8" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Education" sheetId="6" r:id="rId6"/>
     <sheet name="Certifications" sheetId="7" r:id="rId7"/>
     <sheet name="ShareSkills" sheetId="1" r:id="rId8"/>
+    <sheet name="ManageListing" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Title</t>
   </si>
@@ -190,6 +191,18 @@
   </si>
   <si>
     <t>SQL Server</t>
+  </si>
+  <si>
+    <t>All ages Ballet Dancer</t>
+  </si>
+  <si>
+    <t>I am open to teach kids and adults of all ages</t>
+  </si>
+  <si>
+    <t>Exercising</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
 </sst>
 </file>
@@ -882,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2223F1-3B35-43FD-A949-4F4FD09224B8}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1052,4 +1065,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3079475B-3A66-44A9-85C2-AB95794E8424}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced_Tasks\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solan\Desktop\Group Prject advance task\Task 3\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F415CEB-5E93-4A47-9E05-F92F592AA21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Certifications" sheetId="7" r:id="rId7"/>
     <sheet name="ShareSkills" sheetId="1" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Title</t>
   </si>
@@ -157,12 +156,21 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Bombay Univercity</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>B.A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,23 +556,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B4DF40-F1A9-4D9C-BD05-62822D3E7FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -593,7 +601,7 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -616,20 +624,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4525648E-70AE-4193-B5F5-534B48D41F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
@@ -651,7 +659,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -665,32 +673,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211D6DFF-11BF-4C71-A5C8-0AD550E9CC42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E6AF0A-AA37-4E9C-9E78-ACDCFCBE52FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -718,19 +726,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C672DB55-D64F-450E-BAE7-670E1C790183}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -758,22 +766,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6786706B-CD6A-4A18-B46A-030022ED01DA}">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -801,25 +809,42 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>1992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0E989E-ACC8-4325-BD73-B7DF83CA9066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -849,33 +874,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2223F1-3B35-43FD-A949-4F4FD09224B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -928,7 +953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -947,7 +972,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -966,7 +991,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>

--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndustryConnect\AdvancedTask\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiri\source\repos\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D12B9D-5354-4159-9617-8F6490AFCF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D79C4-E8BF-44C1-8387-ABFE829BBF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="2145" windowWidth="20550" windowHeight="11835" firstSheet="2" activeTab="8" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Title</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>I am a Test Analyst</t>
   </si>
 </sst>
 </file>
@@ -709,12 +712,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211D6DFF-11BF-4C71-A5C8-0AD550E9CC42}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1071,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3079475B-3A66-44A9-85C2-AB95794E8424}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>

--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -8,20 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced_Tasks\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B5286-0714-4216-89BF-BE593B642993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F29616E-6C06-4432-BC08-4BC905E1B051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="8" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
     <sheet name="SignIn" sheetId="3" r:id="rId2"/>
-    <sheet name="Profile" sheetId="8" r:id="rId3"/>
-    <sheet name="Languages" sheetId="4" r:id="rId4"/>
-    <sheet name="Skills" sheetId="5" r:id="rId5"/>
-    <sheet name="Education" sheetId="6" r:id="rId6"/>
-    <sheet name="Certifications" sheetId="7" r:id="rId7"/>
-    <sheet name="ShareSkills" sheetId="1" r:id="rId8"/>
-    <sheet name="SearchShareSkill" sheetId="9" r:id="rId9"/>
+    <sheet name="Skills" sheetId="5" r:id="rId3"/>
+    <sheet name="Certifications" sheetId="7" r:id="rId4"/>
+    <sheet name="SearchShareSkill" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,55 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Tag1</t>
-  </si>
-  <si>
-    <t>Tag2</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>LocationType</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>SkillTrade</t>
-  </si>
-  <si>
-    <t>SkillExchangeTag</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>FirstName</t>
   </si>
@@ -112,9 +60,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -127,28 +72,10 @@
     <t>Shareskill</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Language Level</t>
-  </si>
-  <si>
     <t>Skill</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Year of Graduation</t>
-  </si>
-  <si>
     <t>Certificate</t>
-  </si>
-  <si>
-    <t>College</t>
   </si>
   <si>
     <t>From</t>
@@ -200,19 +127,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -256,20 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -601,50 +512,50 @@
     <col min="5" max="5" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4525648E-70AE-4193-B5F5-534B48D41F13}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -666,34 +577,34 @@
     <col min="2" max="2" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>26</v>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -702,59 +613,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211D6DFF-11BF-4C71-A5C8-0AD550E9CC42}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E6AF0A-AA37-4E9C-9E78-ACDCFCBE52FD}">
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C672DB55-D64F-450E-BAE7-670E1C790183}">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -767,42 +625,42 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -810,56 +668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6786706B-CD6A-4A18-B46A-030022ED01DA}">
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0E989E-ACC8-4325-BD73-B7DF83CA9066}">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -873,36 +682,36 @@
     <col min="2" max="2" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -910,10 +719,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -924,155 +733,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2223F1-3B35-43FD-A949-4F4FD09224B8}">
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18972AC6-AF1D-4ABF-9FE7-FB527247F12D}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1081,39 +746,39 @@
     <col min="1" max="1" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiri\source\repos\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced_Tasks\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D79C4-E8BF-44C1-8387-ABFE829BBF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B30F25-FC8A-4EA5-95EF-1B8857E63112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
     <sheet name="SignIn" sheetId="3" r:id="rId2"/>
-    <sheet name="Profile" sheetId="8" r:id="rId3"/>
-    <sheet name="Languages" sheetId="4" r:id="rId4"/>
+    <sheet name="Profile" sheetId="10" r:id="rId3"/>
+    <sheet name="Languages" sheetId="11" r:id="rId4"/>
     <sheet name="Skills" sheetId="5" r:id="rId5"/>
-    <sheet name="Education" sheetId="6" r:id="rId6"/>
+    <sheet name="Education" sheetId="12" r:id="rId6"/>
     <sheet name="Certifications" sheetId="7" r:id="rId7"/>
-    <sheet name="ShareSkills" sheetId="1" r:id="rId8"/>
-    <sheet name="ManageListing" sheetId="9" r:id="rId9"/>
+    <sheet name="ShareSkills" sheetId="13" r:id="rId8"/>
+    <sheet name="ManageListing" sheetId="14" r:id="rId9"/>
+    <sheet name="SearchShareSkill" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,125 +45,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Taskteam@gmail.com</t>
+  </si>
+  <si>
+    <t>Shareskill</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Crochet</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>SkillLevel</t>
+  </si>
+  <si>
+    <t>SalesforceAdministrator</t>
+  </si>
+  <si>
+    <t>SearchSkill</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>pooja saini</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>I am a Test Analyst</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Language Level</t>
+  </si>
+  <si>
+    <t>Year of Graduation</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
   <si>
     <t>Title</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>addtags</t>
+  </si>
+  <si>
+    <t>serviceType</t>
+  </si>
+  <si>
+    <t>locationType</t>
+  </si>
+  <si>
+    <t>daysAvaialable</t>
+  </si>
+  <si>
+    <t>beginDate</t>
+  </si>
+  <si>
+    <t>finishDate</t>
+  </si>
+  <si>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>skilltrade</t>
+  </si>
+  <si>
+    <t>skilltags</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ConfirmPassword</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Taskteam@gmail.com</t>
-  </si>
-  <si>
-    <t>Shareskill</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Language Level</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Skill Level</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Year of Graduation</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>subcategory</t>
-  </si>
-  <si>
-    <t>addtags</t>
-  </si>
-  <si>
-    <t>serviceType</t>
-  </si>
-  <si>
-    <t>locationType</t>
-  </si>
-  <si>
-    <t>daysAvaialable</t>
-  </si>
-  <si>
-    <t>beginDate</t>
-  </si>
-  <si>
-    <t>finishDate</t>
-  </si>
-  <si>
-    <t>starttime</t>
-  </si>
-  <si>
-    <t>endtime</t>
-  </si>
-  <si>
-    <t>skilltrade</t>
-  </si>
-  <si>
-    <t>skilltags</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
     <t>Ballet Dancer</t>
   </si>
   <si>
@@ -175,9 +215,6 @@
     <t>Health, Nutrition &amp; Fitness</t>
   </si>
   <si>
-    <t>Dance</t>
-  </si>
-  <si>
     <t>Hourly basis service</t>
   </si>
   <si>
@@ -205,26 +242,20 @@
     <t>Credit</t>
   </si>
   <si>
-    <t>I am a Test Analyst</t>
+    <t>poojasaini31@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -240,6 +271,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -265,24 +310,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,59 +651,112 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18972AC6-AF1D-4ABF-9FE7-FB527247F12D}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -663,71 +766,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4525648E-70AE-4193-B5F5-534B48D41F13}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{8E970E54-FF52-4223-9E3F-15901AF2E7D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211D6DFF-11BF-4C71-A5C8-0AD550E9CC42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512E2A80-F9C9-4F0C-8E9B-A102C0F55842}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -736,40 +853,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E6AF0A-AA37-4E9C-9E78-ACDCFCBE52FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F79020-277B-4983-BD63-E007830A7BEE}">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -778,38 +896,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C672DB55-D64F-450E-BAE7-670E1C790183}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -817,48 +951,50 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6786706B-CD6A-4A18-B46A-030022ED01DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012EF6DD-798B-473A-81EE-814BB75105E3}">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="3"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -867,40 +1003,63 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0E989E-ACC8-4325-BD73-B7DF83CA9066}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -908,174 +1067,177 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2223F1-3B35-43FD-A949-4F4FD09224B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA39285E-4A3B-40EF-8ADE-8B1B796BAB7A}">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="26.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="3"/>
+    <col min="7" max="7" width="14.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I2">
+      <c r="M1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="3">
         <v>10082024</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>10092024</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>900</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>1600</v>
       </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2">
+      <c r="M2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="P2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1084,76 +1246,79 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3079475B-3A66-44A9-85C2-AB95794E8424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664D187-B730-4FB8-B120-F278D2B02B11}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="3">
         <v>10</v>
       </c>
     </row>

--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiri\source\repos\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D79C4-E8BF-44C1-8387-ABFE829BBF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
     <sheet name="ShareSkills" sheetId="1" r:id="rId8"/>
     <sheet name="ManageListing" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,149 +64,149 @@
     <t>Username</t>
   </si>
   <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Shareskill</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Language Level</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Skill Level</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Year of Graduation</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>addtags</t>
+  </si>
+  <si>
+    <t>serviceType</t>
+  </si>
+  <si>
+    <t>locationType</t>
+  </si>
+  <si>
+    <t>daysAvaialable</t>
+  </si>
+  <si>
+    <t>beginDate</t>
+  </si>
+  <si>
+    <t>finishDate</t>
+  </si>
+  <si>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>skilltrade</t>
+  </si>
+  <si>
+    <t>skilltags</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Ballet Dancer</t>
+  </si>
+  <si>
+    <t>I am a ballet dance instructor with several years of experience</t>
+  </si>
+  <si>
+    <t>Fun &amp; Lifestyle</t>
+  </si>
+  <si>
+    <t>Health, Nutrition &amp; Fitness</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Skill-exchange</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>All ages Ballet Dancer</t>
+  </si>
+  <si>
+    <t>I am open to teach kids and adults of all ages</t>
+  </si>
+  <si>
+    <t>Exercising</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>I am a Test Analyst</t>
+  </si>
+  <si>
     <t>Team</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
     <t>Taskteam@gmail.com</t>
-  </si>
-  <si>
-    <t>Shareskill</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Language Level</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Skill Level</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Year of Graduation</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>subcategory</t>
-  </si>
-  <si>
-    <t>addtags</t>
-  </si>
-  <si>
-    <t>serviceType</t>
-  </si>
-  <si>
-    <t>locationType</t>
-  </si>
-  <si>
-    <t>daysAvaialable</t>
-  </si>
-  <si>
-    <t>beginDate</t>
-  </si>
-  <si>
-    <t>finishDate</t>
-  </si>
-  <si>
-    <t>starttime</t>
-  </si>
-  <si>
-    <t>endtime</t>
-  </si>
-  <si>
-    <t>skilltrade</t>
-  </si>
-  <si>
-    <t>skilltags</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Ballet Dancer</t>
-  </si>
-  <si>
-    <t>I am a ballet dance instructor with several years of experience</t>
-  </si>
-  <si>
-    <t>Fun &amp; Lifestyle</t>
-  </si>
-  <si>
-    <t>Health, Nutrition &amp; Fitness</t>
-  </si>
-  <si>
-    <t>Dance</t>
-  </si>
-  <si>
-    <t>Hourly basis service</t>
-  </si>
-  <si>
-    <t>On-site</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Skill-exchange</t>
-  </si>
-  <si>
-    <t>SQL Server</t>
-  </si>
-  <si>
-    <t>All ages Ballet Dancer</t>
-  </si>
-  <si>
-    <t>I am open to teach kids and adults of all ages</t>
-  </si>
-  <si>
-    <t>Exercising</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>I am a Test Analyst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +235,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -265,10 +267,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -281,8 +284,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,18 +592,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B4DF40-F1A9-4D9C-BD05-62822D3E7FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,32 +646,35 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4525648E-70AE-4193-B5F5-534B48D41F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,23 +706,26 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211D6DFF-11BF-4C71-A5C8-0AD550E9CC42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -722,12 +733,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E6AF0A-AA37-4E9C-9E78-ACDCFCBE52FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -751,10 +762,10 @@
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -777,7 +788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C672DB55-D64F-450E-BAE7-670E1C790183}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -791,10 +802,10 @@
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -817,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6786706B-CD6A-4A18-B46A-030022ED01DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -834,19 +845,19 @@
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -866,7 +877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0E989E-ACC8-4325-BD73-B7DF83CA9066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -880,13 +891,13 @@
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -908,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2223F1-3B35-43FD-A949-4F4FD09224B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -936,52 +947,52 @@
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>1</v>
@@ -989,28 +1000,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
       </c>
       <c r="I2">
         <v>10082024</v>
@@ -1025,10 +1036,10 @@
         <v>1600</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1084,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3079475B-3A66-44A9-85C2-AB95794E8424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1095,63 +1106,63 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="M2" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
       </c>
       <c r="O2">
         <v>10</v>

--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -18,34 +18,51 @@
     <sheet name="ManageListing" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Title</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Tag1</t>
+  </si>
+  <si>
+    <t>Tag2</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>SkillExchangeTag</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
+    <t>Credit</t>
+  </si>
+  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -64,51 +81,84 @@
     <t>Username</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Shareskill</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Language Level</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Skill Level</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Year of Graduation</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>http://localhost:5000</t>
+  </si>
+  <si>
+    <t>Taskteam@gmail.com</t>
+  </si>
+  <si>
     <t>Task</t>
   </si>
   <si>
-    <t>Shareskill</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Language Level</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Skill Level</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Year of Graduation</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>Year</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>I am a Test Analyst</t>
+  </si>
+  <si>
+    <t>I am a ballet dance instructor with several years of experience</t>
+  </si>
+  <si>
+    <t>Fun &amp; Lifestyle</t>
+  </si>
+  <si>
+    <t>Health, Nutrition &amp; Fitness</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Skill-exchange</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -148,58 +198,46 @@
     <t>charge</t>
   </si>
   <si>
-    <t>active</t>
+    <t>All ages Ballet Dancer</t>
+  </si>
+  <si>
+    <t>I am open to teach kids and adults of all ages</t>
+  </si>
+  <si>
+    <t>Exercising</t>
+  </si>
+  <si>
+    <t>#Dance</t>
+  </si>
+  <si>
+    <t>#Hourly basis service</t>
+  </si>
+  <si>
+    <t>#C</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>1100am</t>
+  </si>
+  <si>
+    <t>0100pm</t>
+  </si>
+  <si>
+    <t>beginTime</t>
+  </si>
+  <si>
+    <t>finishTime</t>
   </si>
   <si>
     <t>Ballet Dancer</t>
-  </si>
-  <si>
-    <t>I am a ballet dance instructor with several years of experience</t>
-  </si>
-  <si>
-    <t>Fun &amp; Lifestyle</t>
-  </si>
-  <si>
-    <t>Health, Nutrition &amp; Fitness</t>
-  </si>
-  <si>
-    <t>Dance</t>
-  </si>
-  <si>
-    <t>Hourly basis service</t>
-  </si>
-  <si>
-    <t>On-site</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Skill-exchange</t>
-  </si>
-  <si>
-    <t>SQL Server</t>
-  </si>
-  <si>
-    <t>All ages Ballet Dancer</t>
-  </si>
-  <si>
-    <t>I am open to teach kids and adults of all ages</t>
-  </si>
-  <si>
-    <t>Exercising</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>I am a Test Analyst</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Taskteam@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -271,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,7 +322,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -295,9 +340,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,7 +634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -603,7 +645,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,21 +657,21 @@
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -644,21 +686,21 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -673,24 +715,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -705,17 +750,21 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -726,23 +775,27 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
+      <c r="A1" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
+      <c r="A2" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -760,12 +813,12 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -792,7 +845,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,12 +853,12 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -843,21 +896,21 @@
     <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -889,15 +942,15 @@
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -922,132 +975,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="19" style="15" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" customWidth="1"/>
     <col min="17" max="17" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="13">
+        <v>10082024</v>
+      </c>
+      <c r="J2" s="13">
+        <v>10092024</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2">
-        <v>10082024</v>
-      </c>
-      <c r="J2">
-        <v>10092024</v>
-      </c>
-      <c r="K2">
-        <v>900</v>
-      </c>
-      <c r="L2">
-        <v>1600</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1"/>
+      <c r="O2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1060,7 +1116,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1079,7 +1135,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1098,73 +1154,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
+      <c r="A1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2">
+      <c r="A2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15">
+        <v>10082025</v>
+      </c>
+      <c r="J2" s="15">
+        <v>10092026</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15">
         <v>10</v>
       </c>
     </row>

--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced_Tasks\NUnit\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868C3CAE-5087-45E0-9E58-4D3CC18CC98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -16,13 +22,14 @@
     <sheet name="Certifications" sheetId="7" r:id="rId7"/>
     <sheet name="ShareSkills" sheetId="1" r:id="rId8"/>
     <sheet name="ManageListing" sheetId="9" r:id="rId9"/>
+    <sheet name="SearchShareSkill" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Title</t>
   </si>
@@ -129,9 +136,6 @@
     <t>http://localhost:5000</t>
   </si>
   <si>
-    <t>Taskteam@gmail.com</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -238,12 +242,54 @@
   </si>
   <si>
     <t>Ballet Dancer</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Crochet</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>SalesforceAdministrator</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>pooja saini</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>SearchSkill</t>
+  </si>
+  <si>
+    <t>Teamtask@gmail.com</t>
+  </si>
+  <si>
+    <t>ShareSkill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,6 +386,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -634,30 +683,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -686,18 +735,18 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>21</v>
@@ -705,121 +754,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4E598EBD-64C3-46F4-AF78-E32C90AAEEAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3746C1A-AC46-40CB-AD76-ABFAB976D2FF}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -835,30 +794,134 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{07FA1943-ED52-4C3E-9A43-54E3257D949A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -880,78 +943,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -966,40 +978,169 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="56.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
     <col min="11" max="11" width="19" style="15" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
     <col min="13" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.7265625" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1031,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>9</v>
@@ -1052,30 +1193,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="13">
         <v>10082024</v>
@@ -1084,19 +1225,19 @@
         <v>10092024</v>
       </c>
       <c r="K2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="N2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="13">
         <v>10</v>
@@ -1105,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1124,7 +1265,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1151,87 +1292,87 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="40.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>

--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced_Tasks\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC636A9D-A5C2-4FC3-8C4E-3C6AA06DDBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159346C2-9B86-4028-804E-D700B0AF21F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9350" yWindow="40" windowWidth="9450" windowHeight="10130" firstSheet="8" activeTab="9" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
+    <workbookView xWindow="9740" yWindow="50" windowWidth="9450" windowHeight="10130" firstSheet="4" activeTab="4" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>FirstName</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>#C</t>
+  </si>
+  <si>
+    <t>TestCert</t>
+  </si>
+  <si>
+    <t>SkillOnly</t>
   </si>
 </sst>
 </file>
@@ -791,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18972AC6-AF1D-4ABF-9FE7-FB527247F12D}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -986,10 +992,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C672DB55-D64F-450E-BAE7-670E1C790183}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,6 +1039,16 @@
       </c>
       <c r="B3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1093,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0E989E-ACC8-4325-BD73-B7DF83CA9066}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,6 +1165,22 @@
       </c>
       <c r="C3">
         <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced_Tasks\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F29616E-6C06-4432-BC08-4BC905E1B051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE842718-78C9-46EA-8F9A-74BC8EBC5329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -117,10 +117,10 @@
     <t>Selenium</t>
   </si>
   <si>
+    <t>pooja saini</t>
+  </si>
+  <si>
     <t>Testing</t>
-  </si>
-  <si>
-    <t>pooja saini</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4525648E-70AE-4193-B5F5-534B48D41F13}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18972AC6-AF1D-4ABF-9FE7-FB527247F12D}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,12 +773,12 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced_Tasks\Task3\AdvanceTask_NUnit\AdvanceTask_NUnit\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE842718-78C9-46EA-8F9A-74BC8EBC5329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CC7AE8-D46B-4C72-8E19-C987F50996EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4C82B546-A906-4170-862B-A823C28742AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>FirstName</t>
   </si>
@@ -121,13 +121,19 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Teamtask@gmail.com</t>
+  </si>
+  <si>
+    <t>ShareSkill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +155,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,17 +188,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -567,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4525648E-70AE-4193-B5F5-534B48D41F13}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -600,14 +617,17 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
+      <c r="A2" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BB846A32-1824-4852-9EA2-E0FD4B1977D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -737,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18972AC6-AF1D-4ABF-9FE7-FB527247F12D}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
